--- a/Presentations/DesignPres/marketGap.xlsx
+++ b/Presentations/DesignPres/marketGap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\SIUGoogleDrive\495 project\DesignPres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Presentations\DesignPres\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Miicraft</t>
+  </si>
+  <si>
+    <t>LittleRP</t>
+  </si>
+  <si>
+    <t>DropLit</t>
   </si>
 </sst>
 </file>
@@ -136,8 +142,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,7 +188,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -194,16 +200,16 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -299,17 +305,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11385252480522536"/>
-          <c:y val="2.2195318805488296E-2"/>
-          <c:w val="0.83908028082605668"/>
-          <c:h val="0.8810496145608917"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:bubbleChart>
         <c:varyColors val="0"/>
         <c:ser>
@@ -330,9 +326,7 @@
             <a:noFill/>
             <a:ln w="38100">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -565,9 +559,7 @@
             <a:noFill/>
             <a:ln w="38100">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -575,10 +567,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$G$22,Sheet1!$G$24,Sheet1!$G$25)</c:f>
+              <c:f>(Sheet1!$G$22,Sheet1!$G$24,Sheet1!$G$25,Sheet1!$G$26,Sheet1!$G$27)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7741.9199999999983</c:v>
                 </c:pt>
@@ -587,16 +579,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$22,Sheet1!$C$24,Sheet1!$C$25)</c:f>
+              <c:f>(Sheet1!$C$22,Sheet1!$C$24,Sheet1!$C$25,Sheet1!$C$26,Sheet1!$C$27)</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3375</c:v>
                 </c:pt>
@@ -605,16 +603,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>(Sheet1!$H$22,Sheet1!$H$24,Sheet1!$H$25)</c:f>
+              <c:f>(Sheet1!$H$22,Sheet1!$H$24,Sheet1!$H$25,Sheet1!$H$26,Sheet1!$H$27)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1597738.7399999995</c:v>
                 </c:pt>
@@ -623,6 +627,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>208980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>694160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,12 +655,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln w="25400">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -703,31 +713,17 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="252035584"/>
-        <c:axId val="254654480"/>
+        <c:axId val="-419086912"/>
+        <c:axId val="-419076576"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="252035584"/>
+        <c:axId val="-419086912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -749,7 +745,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>build area (mm^2)</a:t>
+                  <a:t>Build Area (mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -821,12 +825,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254654480"/>
+        <c:crossAx val="-419076576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254654480"/>
+        <c:axId val="-419076576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -834,20 +838,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -940,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252035584"/>
+        <c:crossAx val="-419086912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -958,13 +948,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76352259570365655"/>
-          <c:y val="3.7302911288631314E-2"/>
-          <c:w val="0.15318858429163842"/>
-          <c:h val="0.15335741930563765"/>
+          <c:x val="0.81295998677721981"/>
+          <c:y val="0.53486025844674379"/>
+          <c:w val="0.15332515527763915"/>
+          <c:h val="0.15347958614175933"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1573,7 +1563,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1584,7 +1574,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671560" cy="6294120"/>
+    <xdr:ext cx="8663836" cy="6289110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1611,12 +1601,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.70211</cdr:x>
-      <cdr:y>0.6937</cdr:y>
+      <cdr:x>0.73761</cdr:x>
+      <cdr:y>0.76652</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9174</cdr:x>
-      <cdr:y>0.85835</cdr:y>
+      <cdr:x>0.9529</cdr:x>
+      <cdr:y>0.86535</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1625,8 +1615,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6088380" y="4366260"/>
-          <a:ext cx="1866900" cy="1036320"/>
+          <a:off x="6390524" y="4820739"/>
+          <a:ext cx="1865237" cy="621559"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1638,7 +1628,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Bubble size is build volume in mm^3</a:t>
+            <a:t>Bubble size is build volume in mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -1910,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1924,7 +1918,8 @@
     <col min="4" max="6" width="11.5703125" style="2"/>
     <col min="7" max="7" width="11.5703125" style="3"/>
     <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="9"/>
+    <col min="9" max="9" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
@@ -1987,15 +1982,15 @@
         <v>10411.967999999997</v>
       </c>
       <c r="H2" s="3">
-        <f>PRODUCT(F2:G2)</f>
+        <f t="shared" ref="H2:H25" si="0">PRODUCT(F2:G2)</f>
         <v>1613230.3219199993</v>
       </c>
       <c r="I2" s="9">
-        <f>C2/G2</f>
+        <f t="shared" ref="I2:I27" si="1">C2/G2</f>
         <v>0.2111992660753472</v>
       </c>
       <c r="J2" s="9">
-        <f>C2/H2</f>
+        <f t="shared" ref="J2:J27" si="2">C2/H2</f>
         <v>1.3631035631557198E-3</v>
       </c>
     </row>
@@ -2026,15 +2021,15 @@
         <v>9812.8835999999974</v>
       </c>
       <c r="H3" s="3">
-        <f>PRODUCT(F3:G3)</f>
+        <f t="shared" si="0"/>
         <v>972064.24941599963</v>
       </c>
       <c r="I3" s="9">
-        <f>C3/G3</f>
+        <f t="shared" si="1"/>
         <v>4.0660830828565024E-2</v>
       </c>
       <c r="J3" s="9">
-        <f>C3/H3</f>
+        <f t="shared" si="2"/>
         <v>4.1046669522072507E-4</v>
       </c>
     </row>
@@ -2057,15 +2052,15 @@
         <v>70553.949389535599</v>
       </c>
       <c r="H4" s="3">
-        <f>PRODUCT(F4:G4)</f>
+        <f t="shared" si="0"/>
         <v>12544492.201459428</v>
       </c>
       <c r="I4" s="9">
-        <f>C4/G4</f>
+        <f t="shared" si="1"/>
         <v>1.275619590096945E-2</v>
       </c>
       <c r="J4" s="9">
-        <f>C4/H4</f>
+        <f t="shared" si="2"/>
         <v>7.1744633863720189E-5</v>
       </c>
     </row>
@@ -2092,19 +2087,19 @@
         <v>127</v>
       </c>
       <c r="G5" s="3">
-        <f>PRODUCT(D5:E5)</f>
+        <f t="shared" ref="G5:G25" si="3">PRODUCT(D5:E5)</f>
         <v>19354.799999999996</v>
       </c>
       <c r="H5" s="3">
-        <f>PRODUCT(F5:G5)</f>
+        <f t="shared" si="0"/>
         <v>2458059.5999999996</v>
       </c>
       <c r="I5" s="9">
-        <f>C5/G5</f>
+        <f t="shared" si="1"/>
         <v>4.1281749230165136E-2</v>
       </c>
       <c r="J5" s="9">
-        <f>C5/H5</f>
+        <f t="shared" si="2"/>
         <v>3.2505314354460736E-4</v>
       </c>
     </row>
@@ -2131,19 +2126,19 @@
         <v>205.73999999999998</v>
       </c>
       <c r="G6" s="3">
-        <f>PRODUCT(D6:E6)</f>
+        <f t="shared" si="3"/>
         <v>51103.123599999999</v>
       </c>
       <c r="H6" s="3">
-        <f>PRODUCT(F6:G6)</f>
+        <f t="shared" si="0"/>
         <v>10513956.649463998</v>
       </c>
       <c r="I6" s="9">
-        <f>C6/G6</f>
+        <f t="shared" si="1"/>
         <v>5.0192626581440511E-2</v>
       </c>
       <c r="J6" s="9">
-        <f>C6/H6</f>
+        <f t="shared" si="2"/>
         <v>2.4396143959094256E-4</v>
       </c>
     </row>
@@ -2170,19 +2165,19 @@
         <v>133.35</v>
       </c>
       <c r="G7" s="3">
-        <f>PRODUCT(D7:E7)</f>
+        <f t="shared" si="3"/>
         <v>19516.089999999997</v>
       </c>
       <c r="H7" s="3">
-        <f>PRODUCT(F7:G7)</f>
+        <f t="shared" si="0"/>
         <v>2602470.6014999994</v>
       </c>
       <c r="I7" s="9">
-        <f>C7/G7</f>
+        <f t="shared" si="1"/>
         <v>8.4494383864800807E-2</v>
       </c>
       <c r="J7" s="9">
-        <f>C7/H7</f>
+        <f t="shared" si="2"/>
         <v>6.3362867540158081E-4</v>
       </c>
     </row>
@@ -2209,19 +2204,19 @@
         <v>139.69999999999999</v>
       </c>
       <c r="G8" s="3">
-        <f>PRODUCT(D8:E8)</f>
+        <f t="shared" si="3"/>
         <v>19516.089999999997</v>
       </c>
       <c r="H8" s="3">
-        <f>PRODUCT(F8:G8)</f>
+        <f t="shared" si="0"/>
         <v>2726397.7729999991</v>
       </c>
       <c r="I8" s="9">
-        <f>C8/G8</f>
+        <f t="shared" si="1"/>
         <v>6.6560463699439812E-2</v>
       </c>
       <c r="J8" s="9">
-        <f>C8/H8</f>
+        <f t="shared" si="2"/>
         <v>4.7645285396878895E-4</v>
       </c>
     </row>
@@ -2248,19 +2243,19 @@
         <v>119.38</v>
       </c>
       <c r="G9" s="3">
-        <f>PRODUCT(D9:E9)</f>
+        <f t="shared" si="3"/>
         <v>14251.5844</v>
       </c>
       <c r="H9" s="3">
-        <f>PRODUCT(F9:G9)</f>
+        <f t="shared" si="0"/>
         <v>1701354.145672</v>
       </c>
       <c r="I9" s="9">
-        <f>C9/G9</f>
+        <f t="shared" si="1"/>
         <v>6.3080705609125112E-2</v>
       </c>
       <c r="J9" s="9">
-        <f>C9/H9</f>
+        <f t="shared" si="2"/>
         <v>5.2840262698211691E-4</v>
       </c>
     </row>
@@ -2287,19 +2282,19 @@
         <v>234.95</v>
       </c>
       <c r="G10" s="3">
-        <f>PRODUCT(D10:E10)</f>
+        <f t="shared" si="3"/>
         <v>51612.799999999996</v>
       </c>
       <c r="H10" s="3">
-        <f>PRODUCT(F10:G10)</f>
+        <f t="shared" si="0"/>
         <v>12126427.359999998</v>
       </c>
       <c r="I10" s="9">
-        <f>C10/G10</f>
+        <f t="shared" si="1"/>
         <v>3.776195052390105E-2</v>
       </c>
       <c r="J10" s="9">
-        <f>C10/H10</f>
+        <f t="shared" si="2"/>
         <v>1.6072334762247737E-4</v>
       </c>
     </row>
@@ -2326,19 +2321,19 @@
         <v>228.6</v>
       </c>
       <c r="G11" s="3">
-        <f>PRODUCT(D11:E11)</f>
+        <f t="shared" si="3"/>
         <v>38588.632499999992</v>
       </c>
       <c r="H11" s="3">
-        <f>PRODUCT(F11:G11)</f>
+        <f t="shared" si="0"/>
         <v>8821361.3894999977</v>
       </c>
       <c r="I11" s="9">
-        <f>C11/G11</f>
+        <f t="shared" si="1"/>
         <v>4.0141355099847092E-2</v>
       </c>
       <c r="J11" s="9">
-        <f>C11/H11</f>
+        <f t="shared" si="2"/>
         <v>1.7559647900195581E-4</v>
       </c>
     </row>
@@ -2365,19 +2360,19 @@
         <v>304.79999999999995</v>
       </c>
       <c r="G12" s="3">
-        <f>PRODUCT(D12:E12)</f>
+        <f t="shared" si="3"/>
         <v>92903.039999999979</v>
       </c>
       <c r="H12" s="3">
-        <f>PRODUCT(F12:G12)</f>
+        <f t="shared" si="0"/>
         <v>28316846.591999989</v>
       </c>
       <c r="I12" s="9">
-        <f>C12/G12</f>
+        <f t="shared" si="1"/>
         <v>2.4703174406348817E-2</v>
       </c>
       <c r="J12" s="9">
-        <f>C12/H12</f>
+        <f t="shared" si="2"/>
         <v>8.1047160125816346E-5</v>
       </c>
     </row>
@@ -2404,19 +2399,19 @@
         <v>248.92000000000002</v>
       </c>
       <c r="G13" s="3">
-        <f>PRODUCT(D13:E13)</f>
+        <f t="shared" si="3"/>
         <v>81522.417599999986</v>
       </c>
       <c r="H13" s="3">
-        <f>PRODUCT(F13:G13)</f>
+        <f t="shared" si="0"/>
         <v>20292560.188991997</v>
       </c>
       <c r="I13" s="9">
-        <f>C13/G13</f>
+        <f t="shared" si="1"/>
         <v>2.692510924749612E-2</v>
       </c>
       <c r="J13" s="9">
-        <f>C13/H13</f>
+        <f t="shared" si="2"/>
         <v>1.081677215470678E-4</v>
       </c>
     </row>
@@ -2443,19 +2438,19 @@
         <v>203.2</v>
       </c>
       <c r="G14" s="3">
-        <f>PRODUCT(D14:E14)</f>
+        <f t="shared" si="3"/>
         <v>41290.239999999998</v>
       </c>
       <c r="H14" s="3">
-        <f>PRODUCT(F14:G14)</f>
+        <f t="shared" si="0"/>
         <v>8390176.7679999992</v>
       </c>
       <c r="I14" s="9">
-        <f>C14/G14</f>
+        <f t="shared" si="1"/>
         <v>3.1460219170438342E-2</v>
       </c>
       <c r="J14" s="9">
-        <f>C14/H14</f>
+        <f t="shared" si="2"/>
         <v>1.5482391324034617E-4</v>
       </c>
     </row>
@@ -2482,19 +2477,19 @@
         <v>203.2</v>
       </c>
       <c r="G15" s="3">
-        <f>PRODUCT(D15:E15)</f>
+        <f t="shared" si="3"/>
         <v>41290.239999999998</v>
       </c>
       <c r="H15" s="3">
-        <f>PRODUCT(F15:G15)</f>
+        <f t="shared" si="0"/>
         <v>8390176.7679999992</v>
       </c>
       <c r="I15" s="9">
-        <f>C15/G15</f>
+        <f t="shared" si="1"/>
         <v>2.4194579639159278E-2</v>
       </c>
       <c r="J15" s="9">
-        <f>C15/H15</f>
+        <f t="shared" si="2"/>
         <v>1.1906781318483898E-4</v>
       </c>
     </row>
@@ -2521,19 +2516,19 @@
         <v>175.26</v>
       </c>
       <c r="G16" s="3">
-        <f>PRODUCT(D16:E16)</f>
+        <f t="shared" si="3"/>
         <v>45774.101999999992</v>
       </c>
       <c r="H16" s="3">
-        <f>PRODUCT(F16:G16)</f>
+        <f t="shared" si="0"/>
         <v>8022369.1165199978</v>
       </c>
       <c r="I16" s="9">
-        <f>C16/G16</f>
+        <f t="shared" si="1"/>
         <v>3.6876747467377957E-2</v>
       </c>
       <c r="J16" s="9">
-        <f>C16/H16</f>
+        <f t="shared" si="2"/>
         <v>2.1041165963356134E-4</v>
       </c>
     </row>
@@ -2560,19 +2555,19 @@
         <v>203.2</v>
       </c>
       <c r="G17" s="3">
-        <f>PRODUCT(D17:E17)</f>
+        <f t="shared" si="3"/>
         <v>41290.239999999998</v>
       </c>
       <c r="H17" s="3">
-        <f>PRODUCT(F17:G17)</f>
+        <f t="shared" si="0"/>
         <v>8390176.7679999992</v>
       </c>
       <c r="I17" s="9">
-        <f>C17/G17</f>
+        <f t="shared" si="1"/>
         <v>1.9350819951639904E-2</v>
       </c>
       <c r="J17" s="9">
-        <f>C17/H17</f>
+        <f t="shared" si="2"/>
         <v>9.5230413147834176E-5</v>
       </c>
     </row>
@@ -2599,19 +2594,19 @@
         <v>222.25</v>
       </c>
       <c r="G18" s="3">
-        <f>PRODUCT(D18:E18)</f>
+        <f t="shared" si="3"/>
         <v>61249.877499999995</v>
       </c>
       <c r="H18" s="3">
-        <f>PRODUCT(F18:G18)</f>
+        <f t="shared" si="0"/>
         <v>13612785.274374999</v>
       </c>
       <c r="I18" s="9">
-        <f>C18/G18</f>
+        <f t="shared" si="1"/>
         <v>3.5836806367490287E-2</v>
       </c>
       <c r="J18" s="9">
-        <f>C18/H18</f>
+        <f t="shared" si="2"/>
         <v>1.6124547296958509E-4</v>
       </c>
     </row>
@@ -2638,19 +2633,19 @@
         <v>177.79999999999998</v>
       </c>
       <c r="G19" s="3">
-        <f>PRODUCT(D19:E19)</f>
+        <f t="shared" si="3"/>
         <v>61161.167999999991</v>
       </c>
       <c r="H19" s="3">
-        <f>PRODUCT(F19:G19)</f>
+        <f t="shared" si="0"/>
         <v>10874455.670399997</v>
       </c>
       <c r="I19" s="9">
-        <f>C19/G19</f>
+        <f t="shared" si="1"/>
         <v>3.9224234566612601E-2</v>
       </c>
       <c r="J19" s="9">
-        <f>C19/H19</f>
+        <f t="shared" si="2"/>
         <v>2.2060874334427785E-4</v>
       </c>
     </row>
@@ -2677,19 +2672,19 @@
         <v>198.11999999999998</v>
       </c>
       <c r="G20" s="3">
-        <f>PRODUCT(D20:E20)</f>
+        <f t="shared" si="3"/>
         <v>60967.619999999995</v>
       </c>
       <c r="H20" s="3">
-        <f>PRODUCT(F20:G20)</f>
+        <f t="shared" si="0"/>
         <v>12078904.874399997</v>
       </c>
       <c r="I20" s="9">
-        <f>C20/G20</f>
+        <f t="shared" si="1"/>
         <v>4.1005373016037037E-2</v>
       </c>
       <c r="J20" s="9">
-        <f>C20/H20</f>
+        <f t="shared" si="2"/>
         <v>2.0697240569370607E-4</v>
       </c>
     </row>
@@ -2716,19 +2711,19 @@
         <v>196.85</v>
       </c>
       <c r="G21" s="3">
-        <f>PRODUCT(D21:E21)</f>
+        <f t="shared" si="3"/>
         <v>59516.009999999987</v>
       </c>
       <c r="H21" s="3">
-        <f>PRODUCT(F21:G21)</f>
+        <f t="shared" si="0"/>
         <v>11715726.568499997</v>
       </c>
       <c r="I21" s="9">
-        <f>C21/G21</f>
+        <f t="shared" si="1"/>
         <v>2.3506280074890779E-2</v>
       </c>
       <c r="J21" s="9">
-        <f>C21/H21</f>
+        <f t="shared" si="2"/>
         <v>1.1941214160472836E-4</v>
       </c>
     </row>
@@ -2755,19 +2750,19 @@
         <v>206.375</v>
       </c>
       <c r="G22" s="3">
-        <f>PRODUCT(D22:E22)</f>
+        <f t="shared" si="3"/>
         <v>7741.9199999999983</v>
       </c>
       <c r="H22" s="3">
-        <f>PRODUCT(F22:G22)</f>
+        <f t="shared" si="0"/>
         <v>1597738.7399999995</v>
       </c>
       <c r="I22" s="9">
-        <f>C22/G22</f>
+        <f t="shared" si="1"/>
         <v>0.43593837187674384</v>
       </c>
       <c r="J22" s="9">
-        <f>C22/H22</f>
+        <f t="shared" si="2"/>
         <v>2.1123603725099645E-3</v>
       </c>
     </row>
@@ -2793,19 +2788,19 @@
         <v>216</v>
       </c>
       <c r="G23" s="3">
-        <f>PRODUCT(D23:E23)</f>
+        <f t="shared" si="3"/>
         <v>41472</v>
       </c>
       <c r="H23" s="3">
-        <f>PRODUCT(F23:G23)</f>
+        <f t="shared" si="0"/>
         <v>8957952</v>
       </c>
       <c r="I23" s="9">
-        <f>C23/G23</f>
+        <f t="shared" si="1"/>
         <v>2.4112654320987654E-2</v>
       </c>
       <c r="J23" s="9">
-        <f>C23/H23</f>
+        <f t="shared" si="2"/>
         <v>1.1163265889346136E-4</v>
       </c>
     </row>
@@ -2832,19 +2827,19 @@
         <v>165.1</v>
       </c>
       <c r="G24" s="3">
-        <f>PRODUCT(D24:E24)</f>
+        <f t="shared" si="3"/>
         <v>15490.291600000002</v>
       </c>
       <c r="H24" s="3">
-        <f>PRODUCT(F24:G24)</f>
+        <f t="shared" si="0"/>
         <v>2557447.1431600004</v>
       </c>
       <c r="I24" s="9">
-        <f>C24/G24</f>
+        <f t="shared" si="1"/>
         <v>0.21297210441151407</v>
       </c>
       <c r="J24" s="9">
-        <f>C24/H24</f>
+        <f t="shared" si="2"/>
         <v>1.2899582338674383E-3</v>
       </c>
     </row>
@@ -2868,20 +2863,70 @@
         <v>180</v>
       </c>
       <c r="G25" s="3">
-        <f>PRODUCT(D25:E25)</f>
+        <f t="shared" si="3"/>
         <v>1161</v>
       </c>
       <c r="H25" s="3">
-        <f>PRODUCT(F25:G25)</f>
+        <f t="shared" si="0"/>
         <v>208980</v>
       </c>
       <c r="I25" s="9">
-        <f>C25/G25</f>
+        <f t="shared" si="1"/>
         <v>1.7217915590008612</v>
       </c>
       <c r="J25" s="9">
-        <f>C25/H25</f>
+        <f t="shared" si="2"/>
         <v>9.5655086611158967E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>499</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2880</v>
+      </c>
+      <c r="H26" s="3">
+        <v>288000</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17326388888888888</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7326388888888888E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>399</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4554</v>
+      </c>
+      <c r="H27" s="3">
+        <v>694160</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
+        <v>8.7615283267457184E-2</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="2"/>
+        <v>5.7479543621067187E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Presentations/DesignPres/marketGap.xlsx
+++ b/Presentations/DesignPres/marketGap.xlsx
@@ -326,7 +326,7 @@
             <a:noFill/>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -713,11 +713,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="-419086912"/>
-        <c:axId val="-419076576"/>
+        <c:axId val="1813269744"/>
+        <c:axId val="1813265392"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="-419086912"/>
+        <c:axId val="1813269744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -825,12 +825,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419076576"/>
+        <c:crossAx val="1813265392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-419076576"/>
+        <c:axId val="1813265392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -930,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419086912"/>
+        <c:crossAx val="1813269744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1574,7 +1574,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/Presentations/DesignPres/marketGap.xlsx
+++ b/Presentations/DesignPres/marketGap.xlsx
@@ -655,11 +655,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -713,11 +713,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="1813269744"/>
-        <c:axId val="1813265392"/>
+        <c:axId val="1907773264"/>
+        <c:axId val="1907774896"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1813269744"/>
+        <c:axId val="1907773264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -825,12 +825,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813265392"/>
+        <c:crossAx val="1907774896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1813265392"/>
+        <c:axId val="1907774896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -930,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813269744"/>
+        <c:crossAx val="1907773264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/Presentations/DesignPres/marketGap.xlsx
+++ b/Presentations/DesignPres/marketGap.xlsx
@@ -326,7 +326,7 @@
             <a:noFill/>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -559,7 +559,7 @@
             <a:noFill/>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -655,11 +655,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -713,17 +713,30 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="1907773264"/>
-        <c:axId val="1907774896"/>
+        <c:axId val="-1203466560"/>
+        <c:axId val="-1203469280"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1907773264"/>
+        <c:axId val="-1203466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -796,10 +809,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -825,12 +835,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907774896"/>
+        <c:crossAx val="-1203469280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1907774896"/>
+        <c:axId val="-1203469280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -838,6 +848,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -906,7 +929,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -930,7 +955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907773264"/>
+        <c:crossAx val="-1203466560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
